--- a/article_author.xlsx
+++ b/article_author.xlsx
@@ -786,7 +786,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Еримин</t>
+          <t>Еремин</t>
         </is>
       </c>
     </row>

--- a/article_author.xlsx
+++ b/article_author.xlsx
@@ -786,7 +786,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Еремин</t>
+          <t>Еримин</t>
         </is>
       </c>
     </row>
